--- a/Agosto/08 agosto/loreto/LISTA DE ASPIRANTES_ITSL_LORETO.xlsx
+++ b/Agosto/08 agosto/loreto/LISTA DE ASPIRANTES_ITSL_LORETO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DesAcad\Documents\2024\INGRESO 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\08 agosto\loreto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6F4423189FF558EB0800798382687D537AC7EBC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C09C97-4F9B-477C-B9E7-FF13C5E3AA47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4334E2B-92C6-4571-A18A-A82D58EE9A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUATEC" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1446,27 +1446,27 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1489,13 +1489,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:M128" totalsRowShown="0">
-  <autoFilter ref="A1:M128" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="9">
-      <filters>
-        <dateGroupItem year="2024" month="8" day="7" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M128" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M316">
     <sortCondition ref="M2:M316"/>
   </sortState>
@@ -1519,9 +1513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1559,7 +1553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1665,7 +1659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1807,7 +1801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1821,10 +1815,10 @@
   <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
@@ -1841,7 +1835,7 @@
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>271</v>
       </c>
@@ -1923,7 +1917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>268</v>
       </c>
@@ -1964,7 +1958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>226</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>220</v>
       </c>
@@ -2048,7 +2042,7 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>219</v>
       </c>
@@ -2089,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>195</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>194</v>
       </c>
@@ -2171,7 +2165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>288</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>284</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>283</v>
       </c>
@@ -2294,7 +2288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>280</v>
       </c>
@@ -2335,7 +2329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>278</v>
       </c>
@@ -2376,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>263</v>
       </c>
@@ -2417,7 +2411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>257</v>
       </c>
@@ -2458,7 +2452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>252</v>
       </c>
@@ -2499,7 +2493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>251</v>
       </c>
@@ -2540,7 +2534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>249</v>
       </c>
@@ -2581,7 +2575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>248</v>
       </c>
@@ -2622,7 +2616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>243</v>
       </c>
@@ -2663,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>233</v>
       </c>
@@ -2704,7 +2698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>225</v>
       </c>
@@ -2745,7 +2739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>224</v>
       </c>
@@ -2786,7 +2780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>223</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>217</v>
       </c>
@@ -2868,7 +2862,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>216</v>
       </c>
@@ -2909,7 +2903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>209</v>
       </c>
@@ -2950,7 +2944,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>199</v>
       </c>
@@ -2991,7 +2985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>198</v>
       </c>
@@ -3032,7 +3026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>186</v>
       </c>
@@ -3073,7 +3067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>177</v>
       </c>
@@ -3114,7 +3108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>282</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>256</v>
       </c>
@@ -3196,7 +3190,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>244</v>
       </c>
@@ -3237,7 +3231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>210</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>196</v>
       </c>
@@ -3319,7 +3313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>190</v>
       </c>
@@ -3360,7 +3354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>179</v>
       </c>
@@ -3401,7 +3395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>178</v>
       </c>
@@ -3442,7 +3436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>279</v>
       </c>
@@ -3483,7 +3477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>262</v>
       </c>
@@ -3524,7 +3518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>212</v>
       </c>
@@ -3565,7 +3559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>201</v>
       </c>
@@ -3606,7 +3600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>197</v>
       </c>
@@ -3647,7 +3641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>185</v>
       </c>
@@ -3688,7 +3682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>298</v>
       </c>
@@ -3729,7 +3723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>297</v>
       </c>
@@ -3770,7 +3764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>286</v>
       </c>
@@ -3811,7 +3805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>272</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>259</v>
       </c>
@@ -3893,7 +3887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>255</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>247</v>
       </c>
@@ -3975,7 +3969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>246</v>
       </c>
@@ -4016,7 +4010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>245</v>
       </c>
@@ -4057,7 +4051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>230</v>
       </c>
@@ -4098,7 +4092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>218</v>
       </c>
@@ -4139,7 +4133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>203</v>
       </c>
@@ -4180,7 +4174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>193</v>
       </c>
@@ -4221,7 +4215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>187</v>
       </c>
@@ -4262,7 +4256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>184</v>
       </c>
@@ -4303,7 +4297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>180</v>
       </c>
@@ -4344,7 +4338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>175</v>
       </c>
@@ -4385,7 +4379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>173</v>
       </c>
@@ -4426,7 +4420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>172</v>
       </c>
@@ -4467,7 +4461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>170</v>
       </c>
@@ -4508,7 +4502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>300</v>
       </c>
@@ -4549,7 +4543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>299</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>296</v>
       </c>
@@ -4631,7 +4625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>293</v>
       </c>
@@ -4672,7 +4666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>292</v>
       </c>
@@ -4713,7 +4707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>290</v>
       </c>
@@ -4754,7 +4748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>287</v>
       </c>
@@ -4795,7 +4789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>275</v>
       </c>
@@ -4836,7 +4830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>270</v>
       </c>
@@ -4877,7 +4871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>267</v>
       </c>
@@ -4918,7 +4912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>266</v>
       </c>
@@ -4959,7 +4953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>265</v>
       </c>
@@ -5000,7 +4994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>261</v>
       </c>
@@ -5041,7 +5035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>254</v>
       </c>
@@ -5082,7 +5076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>253</v>
       </c>
@@ -5123,7 +5117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>242</v>
       </c>
@@ -5164,7 +5158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>238</v>
       </c>
@@ -5205,7 +5199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>235</v>
       </c>
@@ -5246,7 +5240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>231</v>
       </c>
@@ -5287,7 +5281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>229</v>
       </c>
@@ -5328,7 +5322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>228</v>
       </c>
@@ -5369,7 +5363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>227</v>
       </c>
@@ -5410,7 +5404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>222</v>
       </c>
@@ -5451,7 +5445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>221</v>
       </c>
@@ -5492,7 +5486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>215</v>
       </c>
@@ -5533,7 +5527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>214</v>
       </c>
@@ -5574,7 +5568,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>206</v>
       </c>
@@ -5615,7 +5609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>205</v>
       </c>
@@ -5656,7 +5650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>192</v>
       </c>
@@ -5697,7 +5691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>189</v>
       </c>
@@ -5738,7 +5732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>174</v>
       </c>
@@ -5779,7 +5773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>171</v>
       </c>
@@ -5820,7 +5814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>294</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>289</v>
       </c>
@@ -5902,7 +5896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>277</v>
       </c>
@@ -5943,7 +5937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>274</v>
       </c>
@@ -5984,7 +5978,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>273</v>
       </c>
@@ -6025,7 +6019,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>211</v>
       </c>
@@ -6066,7 +6060,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>204</v>
       </c>
@@ -6107,7 +6101,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>200</v>
       </c>
@@ -6148,7 +6142,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>295</v>
       </c>
@@ -6189,7 +6183,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>291</v>
       </c>
@@ -6230,7 +6224,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>285</v>
       </c>
@@ -6271,7 +6265,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>276</v>
       </c>
@@ -6312,7 +6306,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>269</v>
       </c>
@@ -6353,7 +6347,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>264</v>
       </c>
@@ -6394,7 +6388,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>260</v>
       </c>
@@ -6435,7 +6429,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>258</v>
       </c>
@@ -6476,7 +6470,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>250</v>
       </c>
@@ -6517,7 +6511,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>241</v>
       </c>
@@ -6558,7 +6552,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>240</v>
       </c>
@@ -6599,7 +6593,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>239</v>
       </c>
@@ -6640,7 +6634,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>237</v>
       </c>
@@ -6681,7 +6675,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>236</v>
       </c>
@@ -6722,7 +6716,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>234</v>
       </c>
@@ -6763,7 +6757,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>232</v>
       </c>
@@ -6804,7 +6798,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>213</v>
       </c>
@@ -6845,7 +6839,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>208</v>
       </c>
@@ -6886,7 +6880,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>207</v>
       </c>
@@ -6927,7 +6921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>202</v>
       </c>
@@ -6968,7 +6962,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>191</v>
       </c>
@@ -7009,7 +7003,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>188</v>
       </c>
@@ -7050,7 +7044,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>176</v>
       </c>
@@ -7237,7 +7231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Agosto/08 agosto/loreto/LISTA DE ASPIRANTES_ITSL_LORETO.xlsx
+++ b/Agosto/08 agosto/loreto/LISTA DE ASPIRANTES_ITSL_LORETO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\08 agosto\loreto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4334E2B-92C6-4571-A18A-A82D58EE9A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1650C8-2842-4F05-9FE4-5326E651C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUATEC" sheetId="1" r:id="rId1"/>
@@ -1489,7 +1489,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:M128" totalsRowShown="0">
-  <autoFilter ref="A1:M128" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A1:M128" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="9">
+      <filters>
+        <dateGroupItem year="2024" month="8" day="8" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M316">
     <sortCondition ref="M2:M316"/>
   </sortState>
@@ -1814,8 +1820,8 @@
   </sheetPr>
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>298</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>297</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>286</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>272</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>259</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>255</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>247</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>246</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>245</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>230</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>218</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>203</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>193</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>187</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>184</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>180</v>
       </c>
@@ -4338,7 +4344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>175</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>173</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>172</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>170</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>300</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>299</v>
       </c>
@@ -4584,7 +4590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>296</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>293</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>292</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>290</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>287</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>275</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>270</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>267</v>
       </c>
@@ -4912,7 +4918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>266</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>265</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>261</v>
       </c>
@@ -5035,7 +5041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>254</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>253</v>
       </c>
@@ -5117,7 +5123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>242</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>238</v>
       </c>
@@ -5199,7 +5205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>235</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>231</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>229</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>228</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>227</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>222</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>221</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>215</v>
       </c>
@@ -5527,7 +5533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>214</v>
       </c>
@@ -5568,7 +5574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>206</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>205</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>192</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>189</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>174</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>171</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>294</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>289</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>277</v>
       </c>
@@ -5937,7 +5943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>274</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>273</v>
       </c>
@@ -6019,7 +6025,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>211</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>204</v>
       </c>
@@ -6101,7 +6107,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>200</v>
       </c>
@@ -6142,7 +6148,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>295</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>291</v>
       </c>
@@ -6224,7 +6230,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>285</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>276</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>269</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>264</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>260</v>
       </c>
@@ -6429,7 +6435,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>258</v>
       </c>
@@ -6470,7 +6476,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>250</v>
       </c>
@@ -6511,7 +6517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>241</v>
       </c>
@@ -6552,7 +6558,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>240</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>239</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>237</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>236</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>234</v>
       </c>
@@ -6757,7 +6763,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>232</v>
       </c>
@@ -6798,7 +6804,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>213</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>208</v>
       </c>
@@ -6880,7 +6886,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>207</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>202</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>191</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>188</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>176</v>
       </c>
